--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\way0u\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274985C-7D15-4343-B98E-FAE3957EB669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE22EC-1B1B-41E8-BEB6-1319D4B6347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="1395" windowWidth="26175" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Event</t>
   </si>
@@ -64,6 +75,9 @@
   </si>
   <si>
     <t>Tech Community 2024 (SQL Saturday Guatemala #1075) - 27 January 2024</t>
+  </si>
+  <si>
+    <t>SQL Saturday Atlanta 2024 (#1072)</t>
   </si>
 </sst>
 </file>
@@ -131,7 +145,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -141,6 +155,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -426,18 +441,18 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -463,7 +478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -478,25 +493,37 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B3">
+        <v>152</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.50657894736842102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>110</v>
+      </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -511,7 +538,7 @@
         <v>0.39866369710467708</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -526,139 +553,142 @@
         <v>0.63054187192118227</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
     </row>
   </sheetData>
@@ -668,8 +698,9 @@
     <hyperlink ref="A4" r:id="rId3" display="https://sqlsaturday.com/2024-03-09-sqlsaturday1073/" xr:uid="{1A2A4DB2-EC8A-41C3-9746-697F12161FD9}"/>
     <hyperlink ref="A5" r:id="rId4" display="https://sqlsaturday.com/2024-02-10-sqlsaturday1071/" xr:uid="{0DC8D3D1-E444-43CE-9D7C-16DD838837D0}"/>
     <hyperlink ref="A6" r:id="rId5" display="https://sqlsaturday.com/2024-01-27-sqlsaturday1075/" xr:uid="{0EC65372-8887-4A19-9A58-76BEB5A3666D}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://sqlsaturday.com/2024-04-20-sqlsaturday1072/" xr:uid="{438B91F9-7C09-4484-9A91-09A5638F5CAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE22EC-1B1B-41E8-BEB6-1319D4B6347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FAF8E-135E-40BA-B2E2-CD8E62F75861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1395" windowWidth="26175" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26505" yWindow="570" windowWidth="26175" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Event</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>SQL Saturday Atlanta 2024 (#1072)</t>
+  </si>
+  <si>
+    <t>55 for precons, 200+ for the raffle at end of day</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,9 +560,18 @@
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B7">
+        <v>463</v>
+      </c>
+      <c r="C7">
+        <v>325</v>
+      </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29805615550755937</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FAF8E-135E-40BA-B2E2-CD8E62F75861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCADD4A-9C83-4685-A7C7-456F3F96170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26505" yWindow="570" windowWidth="26175" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="2820" windowWidth="23865" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Event</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>55 for precons, 200+ for the raffle at end of day</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>SQL Saturday Orange County (#1078)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Jacksonville 2024 (#1068)</t>
   </si>
 </sst>
 </file>
@@ -148,7 +157,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -159,6 +168,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -441,278 +451,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45318</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>406</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IF(C2=0,0,+(C2-D2)/C2)</f>
+        <v>0.63054187192118227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45332</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>449</v>
+      </c>
+      <c r="D3">
+        <v>270</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(C3=0,0,+(C3-D3)/C3)</f>
+        <v>0.39866369710467708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45360</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(C4=0,0,+(C4-D4)/C4)</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>45387</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>152</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(C5=0,0,+(C5-D5)/C5)</f>
+        <v>0.50657894736842102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>45388</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="C6">
         <v>400</v>
       </c>
-      <c r="C2">
+      <c r="D6">
         <v>250</v>
       </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:D25" si="0">IF(B2=0,0,+(B2-C2)/B2)</f>
+      <c r="E6" s="1">
+        <f>IF(C6=0,0,+(C6-D6)/C6)</f>
         <v>0.375</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>152</v>
-      </c>
-      <c r="C3">
-        <v>75</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.50657894736842102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-      <c r="C4">
-        <v>110</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>449</v>
-      </c>
-      <c r="C5">
-        <v>270</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.39866369710467708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>406</v>
-      </c>
-      <c r="C6">
-        <v>150</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.63054187192118227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>45402</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>463</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>325</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
+      <c r="E7" s="1">
+        <f>IF(C7=0,0,+(C7-D7)/C7)</f>
         <v>0.29805615550755937</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>45409</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f>222-73</f>
+        <v>149</v>
+      </c>
+      <c r="D8">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(C8=0,0,+(C8-D8)/C8)</f>
+        <v>0.44295302013422821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>45416</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>617</v>
+      </c>
+      <c r="D9">
+        <f>325+57+38</f>
+        <v>420</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(C9=0,0,+(C9-D9)/C9)</f>
+        <v>0.31928687196110211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <f>IF(C10=0,0,+(C10-D10)/C10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f>IF(C11=0,0,+(C11-D11)/C11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <f>IF(C12=0,0,+(C12-D12)/C12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <f>IF(C13=0,0,+(C13-D13)/C13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f>IF(C14=0,0,+(C14-D14)/C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <f>IF(C15=0,0,+(C15-D15)/C15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f>IF(C16=0,0,+(C16-D16)/C16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f>IF(C17=0,0,+(C17-D17)/C17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f>IF(C18=0,0,+(C18-D18)/C18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f>IF(C19=0,0,+(C19-D19)/C19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f>IF(C20=0,0,+(C20-D20)/C20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f>IF(C21=0,0,+(C21-D21)/C21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f>IF(C22=0,0,+(C22-D22)/C22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f>IF(C23=0,0,+(C23-D23)/C23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f>IF(C24=0,0,+(C24-D24)/C24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f>IF(C25=0,0,+(C25-D25)/C25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
+    <sortCondition ref="A2:A33"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://sqlsaturday.com/2024-04-06-sqlsaturday1069/" xr:uid="{E683BA40-A9DE-4709-8963-3B158EDDB128}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://sqlsaturday.com/2024-04-05-sqlsaturday1059/" xr:uid="{433A839F-586E-481B-9D77-6170EC31B0A4}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://sqlsaturday.com/2024-03-09-sqlsaturday1073/" xr:uid="{1A2A4DB2-EC8A-41C3-9746-697F12161FD9}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://sqlsaturday.com/2024-02-10-sqlsaturday1071/" xr:uid="{0DC8D3D1-E444-43CE-9D7C-16DD838837D0}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://sqlsaturday.com/2024-01-27-sqlsaturday1075/" xr:uid="{0EC65372-8887-4A19-9A58-76BEB5A3666D}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://sqlsaturday.com/2024-04-20-sqlsaturday1072/" xr:uid="{438B91F9-7C09-4484-9A91-09A5638F5CAA}"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://sqlsaturday.com/2024-04-06-sqlsaturday1069/" xr:uid="{E683BA40-A9DE-4709-8963-3B158EDDB128}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://sqlsaturday.com/2024-04-05-sqlsaturday1059/" xr:uid="{433A839F-586E-481B-9D77-6170EC31B0A4}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://sqlsaturday.com/2024-03-09-sqlsaturday1073/" xr:uid="{1A2A4DB2-EC8A-41C3-9746-697F12161FD9}"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://sqlsaturday.com/2024-02-10-sqlsaturday1071/" xr:uid="{0DC8D3D1-E444-43CE-9D7C-16DD838837D0}"/>
+    <hyperlink ref="B2" r:id="rId5" display="https://sqlsaturday.com/2024-01-27-sqlsaturday1075/" xr:uid="{0EC65372-8887-4A19-9A58-76BEB5A3666D}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://sqlsaturday.com/2024-04-20-sqlsaturday1072/" xr:uid="{438B91F9-7C09-4484-9A91-09A5638F5CAA}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://sqlsaturday.com/2024-04-27-sqlsaturday1078/" xr:uid="{5CEC3F5E-9D99-4B9A-A750-F82CAA4F8A6D}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://sqlsaturday.com/2024-05-04-sqlsaturday1068/" xr:uid="{FAE72AA6-2864-40CD-8F60-4B278C3851DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\way0u\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCADD4A-9C83-4685-A7C7-456F3F96170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B8E45-587E-4E5E-9B96-88C87893FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="2820" windowWidth="23865" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1415" yWindow="1415" windowWidth="14400" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Event</t>
   </si>
@@ -90,6 +79,12 @@
   </si>
   <si>
     <t>SQL Saturday Jacksonville 2024 (#1068)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 data.SQL.Saturday.LA (#1088) </t>
+  </si>
+  <si>
+    <t>SQL Saturday Richmond 2024 (#1079) </t>
   </si>
 </sst>
 </file>
@@ -454,19 +449,19 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -495,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" s="6">
         <v>45318</v>
       </c>
@@ -509,11 +504,11 @@
         <v>150</v>
       </c>
       <c r="E2" s="1">
-        <f>IF(C2=0,0,+(C2-D2)/C2)</f>
+        <f t="shared" ref="E2:E25" si="0">IF(C2=0,0,+(C2-D2)/C2)</f>
         <v>0.63054187192118227</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="6">
         <v>45332</v>
       </c>
@@ -527,11 +522,11 @@
         <v>270</v>
       </c>
       <c r="E3" s="1">
-        <f>IF(C3=0,0,+(C3-D3)/C3)</f>
+        <f t="shared" si="0"/>
         <v>0.39866369710467708</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" s="6">
         <v>45360</v>
       </c>
@@ -545,11 +540,11 @@
         <v>110</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(C4=0,0,+(C4-D4)/C4)</f>
+        <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" s="6">
         <v>45387</v>
       </c>
@@ -563,11 +558,11 @@
         <v>75</v>
       </c>
       <c r="E5" s="1">
-        <f>IF(C5=0,0,+(C5-D5)/C5)</f>
+        <f t="shared" si="0"/>
         <v>0.50657894736842102</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A6" s="6">
         <v>45388</v>
       </c>
@@ -581,11 +576,11 @@
         <v>250</v>
       </c>
       <c r="E6" s="1">
-        <f>IF(C6=0,0,+(C6-D6)/C6)</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A7" s="6">
         <v>45402</v>
       </c>
@@ -599,14 +594,14 @@
         <v>325</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(C7=0,0,+(C7-D7)/C7)</f>
+        <f t="shared" si="0"/>
         <v>0.29805615550755937</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" s="6">
         <v>45409</v>
       </c>
@@ -621,11 +616,11 @@
         <v>83</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(C8=0,0,+(C8-D8)/C8)</f>
+        <f t="shared" si="0"/>
         <v>0.44295302013422821</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" s="6">
         <v>45416</v>
       </c>
@@ -640,125 +635,149 @@
         <v>420</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(C9=0,0,+(C9-D9)/C9)</f>
+        <f t="shared" si="0"/>
         <v>0.31928687196110211</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10" s="6">
+        <v>45430</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>140</v>
+      </c>
+      <c r="D10">
+        <v>92</v>
+      </c>
       <c r="E10" s="1">
-        <f>IF(C10=0,0,+(C10-D10)/C10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11" s="6">
+        <v>45444</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>140</v>
+      </c>
+      <c r="D11">
+        <v>75</v>
+      </c>
       <c r="E11" s="1">
-        <f>IF(C11=0,0,+(C11-D11)/C11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="E12" s="1">
-        <f>IF(C12=0,0,+(C12-D12)/C12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="E13" s="1">
-        <f>IF(C13=0,0,+(C13-D13)/C13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
       <c r="E14" s="1">
-        <f>IF(C14=0,0,+(C14-D14)/C14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="E15" s="1">
-        <f>IF(C15=0,0,+(C15-D15)/C15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
       <c r="E16" s="1">
-        <f>IF(C16=0,0,+(C16-D16)/C16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E17" s="1">
-        <f>IF(C17=0,0,+(C17-D17)/C17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E18" s="1">
-        <f>IF(C18=0,0,+(C18-D18)/C18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E19" s="1">
-        <f>IF(C19=0,0,+(C19-D19)/C19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E20" s="1">
-        <f>IF(C20=0,0,+(C20-D20)/C20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E21" s="1">
-        <f>IF(C21=0,0,+(C21-D21)/C21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E22" s="1">
-        <f>IF(C22=0,0,+(C22-D22)/C22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E23" s="1">
-        <f>IF(C23=0,0,+(C23-D23)/C23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E24" s="1">
-        <f>IF(C24=0,0,+(C24-D24)/C24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.75">
       <c r="E25" s="1">
-        <f>IF(C25=0,0,+(C25-D25)/C25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="26.5" x14ac:dyDescent="0.75">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B33" s="4"/>
     </row>
   </sheetData>
@@ -774,8 +793,9 @@
     <hyperlink ref="B7" r:id="rId6" display="https://sqlsaturday.com/2024-04-20-sqlsaturday1072/" xr:uid="{438B91F9-7C09-4484-9A91-09A5638F5CAA}"/>
     <hyperlink ref="B8" r:id="rId7" display="https://sqlsaturday.com/2024-04-27-sqlsaturday1078/" xr:uid="{5CEC3F5E-9D99-4B9A-A750-F82CAA4F8A6D}"/>
     <hyperlink ref="B9" r:id="rId8" display="https://sqlsaturday.com/2024-05-04-sqlsaturday1068/" xr:uid="{FAE72AA6-2864-40CD-8F60-4B278C3851DB}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://sqlsaturday.com/2024-05-18-sqlsaturday1079/" xr:uid="{7FC4E5C9-17A4-4D27-B23B-A81CE8E9B294}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\way0u\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B8E45-587E-4E5E-9B96-88C87893FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756355A-75AD-4A52-8DC8-3448B9706AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1415" yWindow="1415" windowWidth="14400" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="45" windowWidth="17520" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Event</t>
   </si>
@@ -85,6 +97,12 @@
   </si>
   <si>
     <t>SQL Saturday Richmond 2024 (#1079) </t>
+  </si>
+  <si>
+    <t>SQL Saturday Trujillo 2024 (#1081)</t>
+  </si>
+  <si>
+    <t>SQL Saturday South Florida 2024 (#1080)</t>
   </si>
 </sst>
 </file>
@@ -449,19 +467,19 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -490,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45318</v>
       </c>
@@ -508,7 +526,7 @@
         <v>0.63054187192118227</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45332</v>
       </c>
@@ -526,7 +544,7 @@
         <v>0.39866369710467708</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45360</v>
       </c>
@@ -544,7 +562,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45387</v>
       </c>
@@ -562,7 +580,7 @@
         <v>0.50657894736842102</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45388</v>
       </c>
@@ -580,7 +598,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45402</v>
       </c>
@@ -601,7 +619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45409</v>
       </c>
@@ -620,7 +638,7 @@
         <v>0.44295302013422821</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45416</v>
       </c>
@@ -639,7 +657,7 @@
         <v>0.31928687196110211</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45430</v>
       </c>
@@ -657,7 +675,7 @@
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45444</v>
       </c>
@@ -675,109 +693,130 @@
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>45465</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>45472</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>400</v>
+      </c>
+      <c r="D13">
+        <v>110</v>
+      </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:5" ht="27" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
     </row>
   </sheetData>

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756355A-75AD-4A52-8DC8-3448B9706AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D84EC-28B4-4432-AE7D-6B30A6BEF175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="45" windowWidth="17520" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="675" windowWidth="23295" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Event</t>
   </si>
@@ -103,6 +102,9 @@
   </si>
   <si>
     <t>SQL Saturday South Florida 2024 (#1080)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Haiti 2024 (#1077)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +469,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +524,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E25" si="0">IF(C2=0,0,+(C2-D2)/C2)</f>
+        <f>IF(C2=0,0,+(C2-D2)/C2)</f>
         <v>0.63054187192118227</v>
       </c>
     </row>
@@ -540,7 +542,7 @@
         <v>270</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(C3=0,0,+(C3-D3)/C3)</f>
         <v>0.39866369710467708</v>
       </c>
     </row>
@@ -558,7 +560,7 @@
         <v>110</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(C4=0,0,+(C4-D4)/C4)</f>
         <v>0.26666666666666666</v>
       </c>
     </row>
@@ -576,7 +578,7 @@
         <v>75</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(C5=0,0,+(C5-D5)/C5)</f>
         <v>0.50657894736842102</v>
       </c>
     </row>
@@ -594,7 +596,7 @@
         <v>250</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(C6=0,0,+(C6-D6)/C6)</f>
         <v>0.375</v>
       </c>
     </row>
@@ -612,7 +614,7 @@
         <v>325</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(C7=0,0,+(C7-D7)/C7)</f>
         <v>0.29805615550755937</v>
       </c>
       <c r="I7" t="s">
@@ -634,107 +636,122 @@
         <v>83</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(C8=0,0,+(C8-D8)/C8)</f>
         <v>0.44295302013422821</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
+        <v>45409</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+      <c r="D9">
+        <v>481</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(C9=0,0,+(C9-D9)/C9)</f>
+        <v>-1.6722222222222223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>45416</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>617</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f>325+57+38</f>
         <v>420</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
+      <c r="E10" s="1">
+        <f>IF(C10=0,0,+(C10-D10)/C10)</f>
         <v>0.31928687196110211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>45430</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>140</v>
-      </c>
-      <c r="D10">
-        <v>92</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34285714285714286</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>45444</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
+        <v>45430</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C11">
         <v>140</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.4642857142857143</v>
+        <f>IF(C11=0,0,+(C11-D11)/C11)</f>
+        <v>0.34285714285714286</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>45465</v>
+        <v>45444</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>140</v>
       </c>
       <c r="D12">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(C12=0,0,+(C12-D12)/C12)</f>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
+        <v>45465</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>167</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(C13=0,0,+(C13-D13)/C13)</f>
+        <v>-1.1139240506329113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>45472</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>400</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>110</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
+      <c r="E14" s="1">
+        <f>IF(C14=0,0,+(C14-D14)/C14)</f>
         <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E2:E25" si="0">IF(C15=0,0,+(C15-D15)/C15)</f>
         <v>0</v>
       </c>
     </row>
@@ -820,8 +837,8 @@
       <c r="B33" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
-    <sortCondition ref="A2:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">
+    <sortCondition ref="A2:A14"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://sqlsaturday.com/2024-04-06-sqlsaturday1069/" xr:uid="{E683BA40-A9DE-4709-8963-3B158EDDB128}"/>
@@ -831,8 +848,8 @@
     <hyperlink ref="B2" r:id="rId5" display="https://sqlsaturday.com/2024-01-27-sqlsaturday1075/" xr:uid="{0EC65372-8887-4A19-9A58-76BEB5A3666D}"/>
     <hyperlink ref="B7" r:id="rId6" display="https://sqlsaturday.com/2024-04-20-sqlsaturday1072/" xr:uid="{438B91F9-7C09-4484-9A91-09A5638F5CAA}"/>
     <hyperlink ref="B8" r:id="rId7" display="https://sqlsaturday.com/2024-04-27-sqlsaturday1078/" xr:uid="{5CEC3F5E-9D99-4B9A-A750-F82CAA4F8A6D}"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://sqlsaturday.com/2024-05-04-sqlsaturday1068/" xr:uid="{FAE72AA6-2864-40CD-8F60-4B278C3851DB}"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://sqlsaturday.com/2024-05-18-sqlsaturday1079/" xr:uid="{7FC4E5C9-17A4-4D27-B23B-A81CE8E9B294}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://sqlsaturday.com/2024-05-04-sqlsaturday1068/" xr:uid="{FAE72AA6-2864-40CD-8F60-4B278C3851DB}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://sqlsaturday.com/2024-05-18-sqlsaturday1079/" xr:uid="{7FC4E5C9-17A4-4D27-B23B-A81CE8E9B294}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D84EC-28B4-4432-AE7D-6B30A6BEF175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD50C0-2834-4BB2-AEEA-AEFC53BDDB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="675" windowWidth="23295" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="1">
-        <f>IF(C2=0,0,+(C2-D2)/C2)</f>
+        <f t="shared" ref="E2:E14" si="0">IF(C2=0,0,+(C2-D2)/C2)</f>
         <v>0.63054187192118227</v>
       </c>
     </row>
@@ -542,7 +542,7 @@
         <v>270</v>
       </c>
       <c r="E3" s="1">
-        <f>IF(C3=0,0,+(C3-D3)/C3)</f>
+        <f t="shared" si="0"/>
         <v>0.39866369710467708</v>
       </c>
     </row>
@@ -560,7 +560,7 @@
         <v>110</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(C4=0,0,+(C4-D4)/C4)</f>
+        <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
     </row>
@@ -578,7 +578,7 @@
         <v>75</v>
       </c>
       <c r="E5" s="1">
-        <f>IF(C5=0,0,+(C5-D5)/C5)</f>
+        <f t="shared" si="0"/>
         <v>0.50657894736842102</v>
       </c>
     </row>
@@ -596,7 +596,7 @@
         <v>250</v>
       </c>
       <c r="E6" s="1">
-        <f>IF(C6=0,0,+(C6-D6)/C6)</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
     </row>
@@ -614,7 +614,7 @@
         <v>325</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(C7=0,0,+(C7-D7)/C7)</f>
+        <f t="shared" si="0"/>
         <v>0.29805615550755937</v>
       </c>
       <c r="I7" t="s">
@@ -636,7 +636,7 @@
         <v>83</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(C8=0,0,+(C8-D8)/C8)</f>
+        <f t="shared" si="0"/>
         <v>0.44295302013422821</v>
       </c>
     </row>
@@ -654,7 +654,7 @@
         <v>481</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(C9=0,0,+(C9-D9)/C9)</f>
+        <f t="shared" si="0"/>
         <v>-1.6722222222222223</v>
       </c>
     </row>
@@ -673,7 +673,7 @@
         <v>420</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(C10=0,0,+(C10-D10)/C10)</f>
+        <f t="shared" si="0"/>
         <v>0.31928687196110211</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         <v>92</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(C11=0,0,+(C11-D11)/C11)</f>
+        <f t="shared" si="0"/>
         <v>0.34285714285714286</v>
       </c>
     </row>
@@ -709,7 +709,7 @@
         <v>75</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(C12=0,0,+(C12-D12)/C12)</f>
+        <f t="shared" si="0"/>
         <v>0.4642857142857143</v>
       </c>
     </row>
@@ -727,7 +727,7 @@
         <v>167</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(C13=0,0,+(C13-D13)/C13)</f>
+        <f t="shared" si="0"/>
         <v>-1.1139240506329113</v>
       </c>
     </row>
@@ -739,79 +739,79 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D14">
         <v>110</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(C14=0,0,+(C14-D14)/C14)</f>
-        <v>0.72499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.73039215686274506</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
-        <f t="shared" ref="E2:E25" si="0">IF(C15=0,0,+(C15-D15)/C15)</f>
+        <f t="shared" ref="E15:E25" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD50C0-2834-4BB2-AEEA-AEFC53BDDB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7335CA42-962A-4F49-A936-FCA582551FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="675" windowWidth="23295" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24960" yWindow="345" windowWidth="24795" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Event</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>SQL Saturday Haiti 2024 (#1077)</t>
+  </si>
+  <si>
+    <t>SQL Saturday South Island 2024 (#1084)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Baton Rouge 2024 (#1076)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Albany 2024 (#1083)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Wellington 2024 (#1091)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +481,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,87 +762,135 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>45500</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>122</v>
+      </c>
+      <c r="D15">
+        <v>84</v>
+      </c>
       <c r="E15" s="1">
         <f t="shared" ref="E15:E25" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
-        <v>0</v>
+        <v>0.31147540983606559</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>45500</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>661</v>
+      </c>
+      <c r="D16">
+        <v>380</v>
+      </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.42511346444780634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>45507</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>138</v>
+      </c>
+      <c r="D17">
+        <v>84</v>
+      </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.39130434782608697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>45507</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>134</v>
+      </c>
+      <c r="D18">
+        <v>96</v>
+      </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.28358208955223879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -850,8 +910,11 @@
     <hyperlink ref="B8" r:id="rId7" display="https://sqlsaturday.com/2024-04-27-sqlsaturday1078/" xr:uid="{5CEC3F5E-9D99-4B9A-A750-F82CAA4F8A6D}"/>
     <hyperlink ref="B10" r:id="rId8" display="https://sqlsaturday.com/2024-05-04-sqlsaturday1068/" xr:uid="{FAE72AA6-2864-40CD-8F60-4B278C3851DB}"/>
     <hyperlink ref="B11" r:id="rId9" display="https://sqlsaturday.com/2024-05-18-sqlsaturday1079/" xr:uid="{7FC4E5C9-17A4-4D27-B23B-A81CE8E9B294}"/>
+    <hyperlink ref="B16" r:id="rId10" display="https://sqlsaturday.com/2024-07-27-sqlsaturday1076/" xr:uid="{2AF953F3-5349-4E22-85A0-20B3B4760C7B}"/>
+    <hyperlink ref="B17" r:id="rId11" display="https://sqlsaturday.com/2024-08-03-sqlsaturday1083/" xr:uid="{DEF80296-CF9A-492A-84C6-02822F8E8765}"/>
+    <hyperlink ref="B18" r:id="rId12" display="https://sqlsaturday.com/2024-08-03-sqlsaturday1091/" xr:uid="{48D607FA-1D2D-46AC-8EFB-B3A6AA8D6357}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve.jones\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7335CA42-962A-4F49-A936-FCA582551FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8395F883-7A9B-4A59-BB5E-F7630FE73042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24960" yWindow="345" windowWidth="24795" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="555" windowWidth="21525" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Event</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>SQL Saturday Wellington 2024 (#1091)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Syracuse 2024 (1095)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Denver 2024 (#1090)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Costa Rica 2024 (#1090)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +490,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,46 +843,68 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>45514</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>45521</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>180</v>
+      </c>
+      <c r="D20">
+        <v>85</v>
+      </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>45542</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve.jones\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8395F883-7A9B-4A59-BB5E-F7630FE73042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97469D88-EB8E-408D-BB15-450404C4EF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="555" windowWidth="21525" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25260" yWindow="405" windowWidth="19485" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Event</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>SQL Saturday Costa Rica 2024 (#1090)</t>
+  </si>
+  <si>
+    <t>SQL Saturday San Diego 2024 (1092)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +787,7 @@
         <v>84</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E25" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
+        <f t="shared" ref="E15:E22" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
         <v>0.31147540983606559</v>
       </c>
     </row>
@@ -850,11 +853,14 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>500</v>
+        <v>484</v>
+      </c>
+      <c r="D19">
+        <v>280</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.42148760330578511</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -894,8 +900,22 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="6">
+        <v>45549</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>454</v>
+      </c>
+      <c r="D22">
+        <v>223</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50881057268722463</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97469D88-EB8E-408D-BB15-450404C4EF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633B9392-3139-48D0-8ACE-5F3B85A1F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25260" yWindow="405" windowWidth="19485" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26745" yWindow="300" windowWidth="21615" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +921,10 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>SUM(D2:D23)</f>
+        <v>3868</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve.jones\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633B9392-3139-48D0-8ACE-5F3B85A1F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB04FBC-772C-4435-9979-93CEB7F3E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26745" yWindow="300" windowWidth="21615" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Event</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>SQL Saturday San Diego 2024 (1092)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Minnesota 2024 (1087)</t>
   </si>
 </sst>
 </file>
@@ -492,20 +495,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -534,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>45318</v>
       </c>
@@ -552,7 +555,7 @@
         <v>0.63054187192118227</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>45332</v>
       </c>
@@ -570,7 +573,7 @@
         <v>0.39866369710467708</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>45360</v>
       </c>
@@ -588,7 +591,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>45387</v>
       </c>
@@ -606,7 +609,7 @@
         <v>0.50657894736842102</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>45388</v>
       </c>
@@ -624,7 +627,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>45402</v>
       </c>
@@ -645,7 +648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>45409</v>
       </c>
@@ -664,7 +667,7 @@
         <v>0.44295302013422821</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>45409</v>
       </c>
@@ -682,7 +685,7 @@
         <v>-1.6722222222222223</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>45416</v>
       </c>
@@ -701,7 +704,7 @@
         <v>0.31928687196110211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>45430</v>
       </c>
@@ -719,7 +722,7 @@
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>45444</v>
       </c>
@@ -737,7 +740,7 @@
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>45465</v>
       </c>
@@ -755,7 +758,7 @@
         <v>-1.1139240506329113</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>45472</v>
       </c>
@@ -773,7 +776,7 @@
         <v>0.73039215686274506</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>45500</v>
       </c>
@@ -787,11 +790,11 @@
         <v>84</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E22" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
+        <f t="shared" ref="E15:E23" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
         <v>0.31147540983606559</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>45500</v>
       </c>
@@ -809,7 +812,7 @@
         <v>0.42511346444780634</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>45507</v>
       </c>
@@ -827,7 +830,7 @@
         <v>0.39130434782608697</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>45507</v>
       </c>
@@ -845,7 +848,7 @@
         <v>0.28358208955223879</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>45514</v>
       </c>
@@ -863,7 +866,7 @@
         <v>0.42148760330578511</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>45521</v>
       </c>
@@ -881,7 +884,7 @@
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>45542</v>
       </c>
@@ -899,7 +902,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>45549</v>
       </c>
@@ -917,38 +920,53 @@
         <v>0.50881057268722463</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>45563</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>241</v>
+      </c>
+      <c r="D23">
+        <v>148</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38589211618257263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24">
         <f>SUM(D2:D23)</f>
-        <v>3868</v>
+        <v>4016</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E25" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
     </row>
   </sheetData>

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve.jones\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB04FBC-772C-4435-9979-93CEB7F3E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED18F3-ACEE-47ED-B1E4-B12CF2E0E719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22995" yWindow="870" windowWidth="21615" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Event</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>SQL Saturday Minnesota 2024 (1087)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Boston 2024 (1086)</t>
   </si>
 </sst>
 </file>
@@ -496,19 +499,19 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -537,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45318</v>
       </c>
@@ -555,7 +558,7 @@
         <v>0.63054187192118227</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45332</v>
       </c>
@@ -573,7 +576,7 @@
         <v>0.39866369710467708</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45360</v>
       </c>
@@ -591,7 +594,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45387</v>
       </c>
@@ -609,7 +612,7 @@
         <v>0.50657894736842102</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45388</v>
       </c>
@@ -627,7 +630,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45402</v>
       </c>
@@ -648,7 +651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45409</v>
       </c>
@@ -667,7 +670,7 @@
         <v>0.44295302013422821</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45409</v>
       </c>
@@ -685,7 +688,7 @@
         <v>-1.6722222222222223</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45416</v>
       </c>
@@ -704,7 +707,7 @@
         <v>0.31928687196110211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45430</v>
       </c>
@@ -722,7 +725,7 @@
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45444</v>
       </c>
@@ -740,7 +743,7 @@
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45465</v>
       </c>
@@ -758,7 +761,7 @@
         <v>-1.1139240506329113</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45472</v>
       </c>
@@ -776,7 +779,7 @@
         <v>0.73039215686274506</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>45500</v>
       </c>
@@ -790,11 +793,11 @@
         <v>84</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E23" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
+        <f t="shared" ref="E15:E24" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
         <v>0.31147540983606559</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>45500</v>
       </c>
@@ -812,7 +815,7 @@
         <v>0.42511346444780634</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>45507</v>
       </c>
@@ -830,7 +833,7 @@
         <v>0.39130434782608697</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>45507</v>
       </c>
@@ -848,7 +851,7 @@
         <v>0.28358208955223879</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>45514</v>
       </c>
@@ -866,7 +869,7 @@
         <v>0.42148760330578511</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>45521</v>
       </c>
@@ -884,7 +887,7 @@
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>45542</v>
       </c>
@@ -902,7 +905,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>45549</v>
       </c>
@@ -920,7 +923,7 @@
         <v>0.50881057268722463</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>45563</v>
       </c>
@@ -938,35 +941,46 @@
         <v>0.38589211618257263</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>45570</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>250</v>
+      </c>
       <c r="D24">
-        <f>SUM(D2:D23)</f>
-        <v>4016</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
     </row>
   </sheetData>

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED18F3-ACEE-47ED-B1E4-B12CF2E0E719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0405568-1553-43BB-A172-6211C6207E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22995" yWindow="870" windowWidth="21615" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="120" windowWidth="21615" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,14 +949,14 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D24">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>0.188</v>
+        <v>0.10612244897959183</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0405568-1553-43BB-A172-6211C6207E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC4756-A091-4CE9-822B-20CD1CF6CB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="120" windowWidth="21615" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="600" windowWidth="21615" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Event</t>
   </si>
@@ -135,13 +135,34 @@
   </si>
   <si>
     <t>SQL Saturday Boston 2024 (1086)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Pittsburgh 2024 (1094)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Orlando 2024 (1089)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Toronto 2024 (1093)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Vitoria 2024 (1100)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Oregon 2024 (1082)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Belo Horizonte 2024 (1097)</t>
+  </si>
+  <si>
+    <t>QSL Saturday Lima 2024 (1096)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +186,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF404040"/>
-      <name val="Open Sans"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -200,20 +227,26 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -499,12 +532,12 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
@@ -541,10 +574,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45318</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2">
@@ -559,10 +592,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45332</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
@@ -577,10 +610,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45360</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4">
@@ -595,10 +628,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45387</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5">
@@ -613,10 +646,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45388</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6">
@@ -631,10 +664,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45402</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7">
@@ -652,10 +685,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45409</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8">
@@ -671,7 +704,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45409</v>
       </c>
       <c r="B9" t="s">
@@ -689,10 +722,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45416</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10">
@@ -708,10 +741,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45430</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C11">
@@ -726,7 +759,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45444</v>
       </c>
       <c r="B12" t="s">
@@ -744,7 +777,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45465</v>
       </c>
       <c r="B13" t="s">
@@ -762,7 +795,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45472</v>
       </c>
       <c r="B14" t="s">
@@ -780,7 +813,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45500</v>
       </c>
       <c r="B15" t="s">
@@ -793,15 +826,15 @@
         <v>84</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E24" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
+        <f t="shared" ref="E15:E25" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
         <v>0.31147540983606559</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45500</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C16">
@@ -816,10 +849,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45507</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C17">
@@ -834,10 +867,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45507</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C18">
@@ -852,7 +885,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45514</v>
       </c>
       <c r="B19" t="s">
@@ -870,7 +903,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45521</v>
       </c>
       <c r="B20" t="s">
@@ -888,7 +921,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>45542</v>
       </c>
       <c r="B21" t="s">
@@ -906,7 +939,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>45549</v>
       </c>
       <c r="B22" t="s">
@@ -924,7 +957,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>45563</v>
       </c>
       <c r="B23" t="s">
@@ -942,7 +975,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>45570</v>
       </c>
       <c r="B24" t="s">
@@ -960,28 +993,76 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
+      <c r="A25" s="5">
+        <v>45577</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>138</v>
+      </c>
+      <c r="D25">
+        <v>134</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8985507246376812E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45584</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45584</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
+      <c r="A28" s="5">
+        <v>45591</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
+      <c r="A29" s="5">
+        <v>45598</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
+      <c r="A30" s="5">
+        <v>45619</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
+      <c r="A31" s="5">
+        <v>45626</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
+      <c r="B33" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC4756-A091-4CE9-822B-20CD1CF6CB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9880C-10C7-4C92-A407-F411598247CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="600" windowWidth="21615" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="480" windowWidth="16860" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E26" sqref="E26:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +826,7 @@
         <v>84</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E25" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
+        <f t="shared" ref="E15:E30" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
         <v>0.31147540983606559</v>
       </c>
     </row>
@@ -1017,6 +1017,10 @@
       <c r="B26" t="s">
         <v>34</v>
       </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -1025,6 +1029,16 @@
       <c r="B27" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="C27">
+        <v>305</v>
+      </c>
+      <c r="D27">
+        <v>225</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26229508196721313</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -1033,6 +1047,10 @@
       <c r="B28" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -1041,6 +1059,10 @@
       <c r="B29" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1048,6 +1070,10 @@
       </c>
       <c r="B30" s="7" t="s">
         <v>38</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9880C-10C7-4C92-A407-F411598247CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12403F06-38E1-4D39-BFA4-BAC96DBB7021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11100" yWindow="480" windowWidth="16860" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,9 +1017,15 @@
       <c r="B26" t="s">
         <v>34</v>
       </c>
+      <c r="C26">
+        <v>423</v>
+      </c>
+      <c r="D26">
+        <v>166</v>
+      </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.60756501182033096</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12403F06-38E1-4D39-BFA4-BAC96DBB7021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0A5808-D900-40DB-8D1B-D3F1BAD36783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="480" windowWidth="16860" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="705" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>SQL Saturday Belo Horizonte 2024 (1097)</t>
   </si>
   <si>
-    <t>QSL Saturday Lima 2024 (1096)</t>
+    <t>SQL Saturday Lima 2024 (1096)</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,9 +1065,15 @@
       <c r="B29" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C29">
+        <v>331</v>
+      </c>
+      <c r="D29">
+        <v>240</v>
+      </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.27492447129909364</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0A5808-D900-40DB-8D1B-D3F1BAD36783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CBFFB9-8680-4AF5-BF54-614F6A76F81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="705" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="240" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1053,9 +1053,15 @@
       <c r="B28" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="C28">
+        <v>1312</v>
+      </c>
+      <c r="D28">
+        <v>478</v>
+      </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.63567073170731703</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CBFFB9-8680-4AF5-BF54-614F6A76F81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D80E6D8-DC2D-4772-8977-092422FEB124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="240" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="765" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Event</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>SQL Saturday Lima 2024 (1096)</t>
+  </si>
+  <si>
+    <t>SQL Saturday Houston 2024 (1098)</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +829,7 @@
         <v>84</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E30" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
+        <f t="shared" ref="E15:E32" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
         <v>0.31147540983606559</v>
       </c>
     </row>
@@ -1101,9 +1104,28 @@
       <c r="B31" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
+      <c r="A32" s="5">
+        <v>45633</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>160</v>
+      </c>
+      <c r="D32">
+        <v>140</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D80E6D8-DC2D-4772-8977-092422FEB124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977C0B50-9022-467F-9EC7-58D0E2E73636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="765" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="510" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E32"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,9 +1104,15 @@
       <c r="B31" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="C31">
+        <v>140</v>
+      </c>
+      <c r="D31">
+        <v>72</v>
+      </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.48571428571428571</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977C0B50-9022-467F-9EC7-58D0E2E73636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739E398D-86D2-4FFC-8FAB-7285FF1A49D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="510" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="210" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Event</t>
   </si>
@@ -159,13 +159,16 @@
   </si>
   <si>
     <t>SQL Saturday Houston 2024 (1098)</t>
+  </si>
+  <si>
+    <t>SQL Tuesday Sao Paulo 2024 (1099)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,13 +205,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,7 +228,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -247,7 +243,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,7 +532,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +826,7 @@
         <v>84</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E32" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
+        <f t="shared" ref="E15:E33" si="1">IF(C15=0,0,+(C15-D15)/C15)</f>
         <v>0.31147540983606559</v>
       </c>
     </row>
@@ -1133,8 +1130,23 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45643</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>152</v>
+      </c>
+      <c r="D33">
+        <v>81</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="1"/>
+        <v>0.46710526315789475</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">

--- a/assets/misc/2024/2024_Attendance.xlsx
+++ b/assets/misc/2024/2024_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739E398D-86D2-4FFC-8FAB-7285FF1A49D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBACFCD-1898-4C15-8293-3733925CB5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="210" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29700" yWindow="0" windowWidth="20760" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -243,7 +243,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -532,7 +531,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,9 +1088,15 @@
       <c r="B30" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
+        <v>400</v>
+      </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,7 +1139,7 @@
       <c r="A33" s="5">
         <v>45643</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C33">
@@ -1143,7 +1148,7 @@
       <c r="D33">
         <v>81</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="1">
         <f t="shared" si="1"/>
         <v>0.46710526315789475</v>
       </c>
